--- a/data/trans_dic/P25_4-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25_4-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece enfermedad crónica del pulmón / enfisema / bronquitis crónica</t>
+          <t>Población que padece enfermedad crónica del pulmón / enfisema / bronquitis crónica (tasa de respuesta: 99,96%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -657,12 +682,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +697,22 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -781,6 +836,21 @@
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,23</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,8%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,91%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2,37%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,27</t>
+          <t>0,0; 7,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,71</t>
+          <t>0,0; 8,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 7,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 7,33</t>
+          <t>0,0; 6,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,56</t>
+          <t>0,0; 6,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 4,34</t>
+          <t>0,0; 19,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 4,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,57; 4,85</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0,58; 5,19</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 11,25</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,19%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2,32%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,55%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,71%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 6,18</t>
+          <t>0,0; 7,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,58; 9,5</t>
+          <t>1,26; 11,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,62</t>
+          <t>0,0; 6,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,45; 5,73</t>
+          <t>0,0; 8,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,93</t>
+          <t>0,0; 5,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 4,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,25; 5,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,88</t>
+          <t>0,0; 4,08</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0,59; 5,42</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,76</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,54</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>2,55%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4,27%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>6,18%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1,68%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,5; 10,87</t>
+          <t>0,0; 11,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,35; 12,95</t>
+          <t>0,0; 10,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,18; 17,06</t>
+          <t>1,36; 13,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,87; 7,75</t>
+          <t>0,0; 9,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,32; 14,8</t>
+          <t>0,0; 10,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,73; 12,32</t>
+          <t>1,78; 15,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 7,8</t>
+          <t>1,9; 18,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,51; 10,89</t>
+          <t>0,0; 8,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,34; 11,79</t>
+          <t>0,78; 7,09</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1,58; 9,51</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2,71; 12,49</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,21</t>
         </is>
       </c>
     </row>
@@ -1182,17 +1357,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1202,27 +1377,42 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>7,02%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>7,09%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2,99%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>5,49%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,57; 22,05</t>
+          <t>2,69; 23,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,29; 22,4</t>
+          <t>2,39; 24,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,73; 15,5</t>
+          <t>0,0; 17,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,4; 23,38</t>
+          <t>2,78; 23,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,85; 20,08</t>
+          <t>0,0; 13,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,28; 23,75</t>
+          <t>1,84; 16,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,86; 18,69</t>
+          <t>0,0; 8,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,66; 17,71</t>
+          <t>0,0; 8,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,48; 16,64</t>
+          <t>2,52; 14,18</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>2,61; 15,34</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0,88; 7,84</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1,92; 11,52</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>1,51%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,34%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1,71%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1,71%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,06; 5,01</t>
+          <t>0,93; 4,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,14; 5,09</t>
+          <t>1,43; 5,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,57; 4,01</t>
+          <t>0,77; 3,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,37; 4,36</t>
+          <t>0,71; 4,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,02; 5,19</t>
+          <t>0,25; 2,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,09; 5,79</t>
+          <t>0,91; 3,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,94; 4,11</t>
+          <t>0,64; 3,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,47; 4,63</t>
+          <t>0,41; 5,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,45</t>
+          <t>0,77; 2,61</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1,34; 3,56</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0,96; 2,83</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0,8; 3,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece enfermedad crónica del pulmón / enfisema / bronquitis crónica (tasa de respuesta: 99,96%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2438</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4151</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4013</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>9957</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>6130</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>6452</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>9957</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9911</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12276</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14016</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13846</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 46518</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1938; 16544</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1968; 17536</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 47255</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2493</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>8057</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1806</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2938</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2348</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>4840</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>8057</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1806</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>2938</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 13194</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2028; 18144</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 9613</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 16339</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 11740</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 16511</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>2064; 18827</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0; 9063</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>0; 14661</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>4845</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3814</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>5885</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2077</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5834</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>7461</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2091</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>6921</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>9647</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>13347</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>4891</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 17485</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 13301</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1674; 16196</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 14509</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 12413</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1672; 14676</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1759; 16798</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 11007</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2118; 19230</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>3578; 21491</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>5854; 26952</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0; 15210</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>11534</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>7090</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4262</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>13738</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>5807</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1742</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>5404</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>17341</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>13638</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>6005</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>19142</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2939; 25560</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2084; 21424</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 15342</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3834; 32611</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 18376</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1931; 17364</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 8906</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 17632</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>6212; 35021</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>5017; 29535</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1767; 15732</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>6701; 40165</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>18871</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>20940</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>14392</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>19477</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>10232</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>16532</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>13217</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>17451</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>29103</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>37472</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>27609</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>36928</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>8246; 38143</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>10890; 38742</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>6039; 27679</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>7435; 42445</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2628; 24086</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>7672; 31327</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>5256; 28321</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>4570; 55923</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>14729; 50212</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>21515; 57018</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>15529; 45756</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>17264; 73247</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>